--- a/Archivos originales usados/Preparación Dummy soja Data trimestral agosto 2023 listo.xlsx
+++ b/Archivos originales usados/Preparación Dummy soja Data trimestral agosto 2023 listo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marianabarrena/Library/CloudStorage/GoogleDrive-marianabarrena@derecho.uba.ar/Mi unidad/UCA Sincronizado/UCA Proyecto de TESIS/Estadísticas/Github/Archivos originales usados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C68868-B494-6446-94B2-4F972F90DD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399D2724-E691-0040-ACA6-62D72CBDDD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1840" windowWidth="38400" windowHeight="21600" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27320" windowHeight="13400" xr2:uid="{081104FB-1F73-C945-9C9A-B52E522B90FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="20">
   <si>
     <t>Ebc</t>
   </si>
@@ -88,10 +88,13 @@
     <t>ipc_ajust</t>
   </si>
   <si>
-    <t>Promedio Psoja--&gt;</t>
+    <t>Dsoja</t>
   </si>
   <si>
-    <t>Dsoja</t>
+    <t>Promedio Psoja (1980 a 2019)--&gt;</t>
+  </si>
+  <si>
+    <t>Promedio Psoja (1980 a 2015)--&gt;</t>
   </si>
 </sst>
 </file>
@@ -559,7 +562,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -808,7 +811,7 @@
         <v>7.3500000000000005</v>
       </c>
       <c r="J7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="7">
         <v>3.2166666666666668</v>
@@ -1177,7 +1180,7 @@
         <v>7.3733333333333322</v>
       </c>
       <c r="J16" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="7">
         <v>3.2666666666666671</v>
@@ -2071,7 +2074,7 @@
         <v>7.496666666666667</v>
       </c>
       <c r="J37" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="7">
         <v>2.5399999999999996</v>
@@ -3523,7 +3526,7 @@
         <v>7.4933333333333332</v>
       </c>
       <c r="J70" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70" s="7">
         <v>2.7099999999999995</v>
@@ -7555,7 +7558,7 @@
       <c r="M162" s="7"/>
       <c r="N162" s="4"/>
     </row>
-    <row r="163" spans="1:14" ht="17">
+    <row r="163" spans="1:14" ht="34">
       <c r="A163" s="1"/>
       <c r="C163"/>
       <c r="D163" s="3"/>
@@ -7563,7 +7566,7 @@
       <c r="F163" s="2"/>
       <c r="G163" s="8"/>
       <c r="H163" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I163" s="6">
         <f>AVERAGE(I2:I161)</f>
@@ -7590,15 +7593,20 @@
       <c r="M164" s="7"/>
       <c r="N164" s="4"/>
     </row>
-    <row r="165" spans="1:14">
+    <row r="165" spans="1:14" ht="34">
       <c r="A165" s="1"/>
       <c r="C165"/>
       <c r="D165" s="3"/>
       <c r="E165"/>
       <c r="F165" s="2"/>
       <c r="G165" s="8"/>
-      <c r="H165" s="5"/>
-      <c r="I165" s="6"/>
+      <c r="H165" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I165" s="6">
+        <f>AVERAGE(I4:I145)</f>
+        <v>7.3421126760563356</v>
+      </c>
       <c r="J165" s="6"/>
       <c r="K165" s="6"/>
       <c r="L165" s="7"/>
